--- a/FineTuning/ModelRuns/DoRA_Finetuned/pivot_evaluations.xlsx
+++ b/FineTuning/ModelRuns/DoRA_Finetuned/pivot_evaluations.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B591"/>
+  <dimension ref="A1:E591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,6 +471,21 @@
           <t>run_balanced_pass</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>run_easy_heavy_pass</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>run_hard_heavy_pass</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_medium_heavy_pass</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -476,6 +494,15 @@
       <c r="B2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -484,6 +511,15 @@
       <c r="B3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -492,6 +528,15 @@
       <c r="B4" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -500,6 +545,15 @@
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -508,6 +562,15 @@
       <c r="B6" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -516,6 +579,15 @@
       <c r="B7" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -524,6 +596,15 @@
       <c r="B8" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -532,6 +613,15 @@
       <c r="B9" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -540,6 +630,15 @@
       <c r="B10" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -548,6 +647,15 @@
       <c r="B11" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -556,6 +664,15 @@
       <c r="B12" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -564,6 +681,15 @@
       <c r="B13" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -572,6 +698,15 @@
       <c r="B14" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -580,6 +715,15 @@
       <c r="B15" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -588,6 +732,15 @@
       <c r="B16" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -596,6 +749,15 @@
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -604,6 +766,15 @@
       <c r="B18" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -612,6 +783,15 @@
       <c r="B19" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -620,6 +800,15 @@
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -628,6 +817,15 @@
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -636,6 +834,15 @@
       <c r="B22" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -644,6 +851,15 @@
       <c r="B23" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -652,6 +868,15 @@
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -660,6 +885,15 @@
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -668,6 +902,15 @@
       <c r="B26" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -676,6 +919,15 @@
       <c r="B27" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -684,6 +936,15 @@
       <c r="B28" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -692,6 +953,15 @@
       <c r="B29" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -700,6 +970,15 @@
       <c r="B30" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -708,6 +987,15 @@
       <c r="B31" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -716,6 +1004,15 @@
       <c r="B32" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -724,6 +1021,15 @@
       <c r="B33" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -732,6 +1038,15 @@
       <c r="B34" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -740,6 +1055,15 @@
       <c r="B35" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -748,6 +1072,15 @@
       <c r="B36" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -756,6 +1089,15 @@
       <c r="B37" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -764,6 +1106,15 @@
       <c r="B38" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -772,6 +1123,15 @@
       <c r="B39" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -780,6 +1140,15 @@
       <c r="B40" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -788,6 +1157,15 @@
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -796,6 +1174,15 @@
       <c r="B42" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -804,6 +1191,15 @@
       <c r="B43" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -812,6 +1208,15 @@
       <c r="B44" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -820,6 +1225,15 @@
       <c r="B45" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -828,6 +1242,15 @@
       <c r="B46" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -836,6 +1259,15 @@
       <c r="B47" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -844,6 +1276,15 @@
       <c r="B48" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -852,6 +1293,15 @@
       <c r="B49" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -860,6 +1310,15 @@
       <c r="B50" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -868,6 +1327,15 @@
       <c r="B51" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -876,6 +1344,15 @@
       <c r="B52" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -884,6 +1361,15 @@
       <c r="B53" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -892,6 +1378,15 @@
       <c r="B54" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -900,6 +1395,15 @@
       <c r="B55" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -908,6 +1412,15 @@
       <c r="B56" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -916,6 +1429,15 @@
       <c r="B57" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -924,6 +1446,15 @@
       <c r="B58" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -932,6 +1463,15 @@
       <c r="B59" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -940,6 +1480,15 @@
       <c r="B60" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -948,6 +1497,15 @@
       <c r="B61" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -956,6 +1514,15 @@
       <c r="B62" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -964,6 +1531,15 @@
       <c r="B63" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -972,6 +1548,15 @@
       <c r="B64" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -980,6 +1565,15 @@
       <c r="B65" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -988,6 +1582,15 @@
       <c r="B66" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -996,6 +1599,15 @@
       <c r="B67" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1004,6 +1616,15 @@
       <c r="B68" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1012,6 +1633,15 @@
       <c r="B69" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1020,6 +1650,15 @@
       <c r="B70" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1028,6 +1667,15 @@
       <c r="B71" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1036,6 +1684,15 @@
       <c r="B72" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1044,6 +1701,15 @@
       <c r="B73" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1052,6 +1718,15 @@
       <c r="B74" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1060,6 +1735,15 @@
       <c r="B75" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1068,6 +1752,15 @@
       <c r="B76" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1076,6 +1769,15 @@
       <c r="B77" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1084,6 +1786,15 @@
       <c r="B78" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1092,6 +1803,15 @@
       <c r="B79" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1100,6 +1820,15 @@
       <c r="B80" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1108,6 +1837,15 @@
       <c r="B81" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1116,6 +1854,15 @@
       <c r="B82" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1124,6 +1871,15 @@
       <c r="B83" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1132,6 +1888,15 @@
       <c r="B84" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1140,6 +1905,15 @@
       <c r="B85" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1148,6 +1922,15 @@
       <c r="B86" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1156,6 +1939,15 @@
       <c r="B87" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C87" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1164,6 +1956,15 @@
       <c r="B88" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C88" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1172,6 +1973,15 @@
       <c r="B89" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1180,6 +1990,15 @@
       <c r="B90" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1188,6 +2007,15 @@
       <c r="B91" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C91" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1196,6 +2024,15 @@
       <c r="B92" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1204,6 +2041,15 @@
       <c r="B93" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1212,6 +2058,15 @@
       <c r="B94" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1220,6 +2075,15 @@
       <c r="B95" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1228,6 +2092,15 @@
       <c r="B96" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1236,6 +2109,15 @@
       <c r="B97" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1244,6 +2126,15 @@
       <c r="B98" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1252,6 +2143,15 @@
       <c r="B99" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1260,6 +2160,15 @@
       <c r="B100" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1268,6 +2177,15 @@
       <c r="B101" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1276,6 +2194,15 @@
       <c r="B102" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1284,6 +2211,15 @@
       <c r="B103" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1292,6 +2228,15 @@
       <c r="B104" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1300,6 +2245,15 @@
       <c r="B105" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1308,6 +2262,15 @@
       <c r="B106" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1316,6 +2279,15 @@
       <c r="B107" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1324,6 +2296,15 @@
       <c r="B108" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1332,6 +2313,15 @@
       <c r="B109" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1340,6 +2330,15 @@
       <c r="B110" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1348,6 +2347,15 @@
       <c r="B111" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C111" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1356,6 +2364,15 @@
       <c r="B112" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1364,6 +2381,15 @@
       <c r="B113" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1372,6 +2398,15 @@
       <c r="B114" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1380,6 +2415,15 @@
       <c r="B115" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1388,6 +2432,15 @@
       <c r="B116" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1396,6 +2449,15 @@
       <c r="B117" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1404,6 +2466,15 @@
       <c r="B118" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1412,6 +2483,15 @@
       <c r="B119" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1420,6 +2500,15 @@
       <c r="B120" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1428,6 +2517,15 @@
       <c r="B121" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1436,6 +2534,15 @@
       <c r="B122" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1444,6 +2551,15 @@
       <c r="B123" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1452,6 +2568,15 @@
       <c r="B124" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1460,6 +2585,15 @@
       <c r="B125" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1468,6 +2602,15 @@
       <c r="B126" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1476,6 +2619,15 @@
       <c r="B127" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1484,6 +2636,15 @@
       <c r="B128" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1492,6 +2653,15 @@
       <c r="B129" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1500,6 +2670,15 @@
       <c r="B130" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1508,6 +2687,15 @@
       <c r="B131" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1516,6 +2704,15 @@
       <c r="B132" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1524,6 +2721,15 @@
       <c r="B133" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1532,6 +2738,15 @@
       <c r="B134" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1540,6 +2755,15 @@
       <c r="B135" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1548,6 +2772,15 @@
       <c r="B136" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1556,6 +2789,15 @@
       <c r="B137" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1564,6 +2806,15 @@
       <c r="B138" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1572,6 +2823,15 @@
       <c r="B139" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1580,6 +2840,15 @@
       <c r="B140" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1588,6 +2857,15 @@
       <c r="B141" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -1596,6 +2874,15 @@
       <c r="B142" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -1604,6 +2891,15 @@
       <c r="B143" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -1612,6 +2908,15 @@
       <c r="B144" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -1620,6 +2925,15 @@
       <c r="B145" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -1628,6 +2942,15 @@
       <c r="B146" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -1636,6 +2959,15 @@
       <c r="B147" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -1644,6 +2976,15 @@
       <c r="B148" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -1652,6 +2993,15 @@
       <c r="B149" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -1660,6 +3010,15 @@
       <c r="B150" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -1668,6 +3027,15 @@
       <c r="B151" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -1676,6 +3044,15 @@
       <c r="B152" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -1684,6 +3061,15 @@
       <c r="B153" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -1692,6 +3078,15 @@
       <c r="B154" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -1700,6 +3095,15 @@
       <c r="B155" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -1708,6 +3112,15 @@
       <c r="B156" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1716,6 +3129,15 @@
       <c r="B157" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1724,6 +3146,15 @@
       <c r="B158" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -1732,6 +3163,15 @@
       <c r="B159" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -1740,6 +3180,15 @@
       <c r="B160" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1748,6 +3197,15 @@
       <c r="B161" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -1756,6 +3214,15 @@
       <c r="B162" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -1764,6 +3231,15 @@
       <c r="B163" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -1772,6 +3248,15 @@
       <c r="B164" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1780,6 +3265,15 @@
       <c r="B165" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C165" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -1788,6 +3282,15 @@
       <c r="B166" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -1796,6 +3299,15 @@
       <c r="B167" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -1804,6 +3316,15 @@
       <c r="B168" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -1812,6 +3333,15 @@
       <c r="B169" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C169" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -1820,6 +3350,15 @@
       <c r="B170" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -1828,6 +3367,15 @@
       <c r="B171" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -1836,6 +3384,15 @@
       <c r="B172" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -1844,6 +3401,15 @@
       <c r="B173" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C173" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -1852,6 +3418,15 @@
       <c r="B174" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C174" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -1860,6 +3435,15 @@
       <c r="B175" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -1868,6 +3452,15 @@
       <c r="B176" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C176" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -1876,6 +3469,15 @@
       <c r="B177" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -1884,6 +3486,15 @@
       <c r="B178" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -1892,6 +3503,15 @@
       <c r="B179" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C179" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -1900,6 +3520,15 @@
       <c r="B180" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C180" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -1908,6 +3537,15 @@
       <c r="B181" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C181" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D181" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -1916,6 +3554,15 @@
       <c r="B182" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -1924,6 +3571,15 @@
       <c r="B183" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -1932,6 +3588,15 @@
       <c r="B184" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -1940,6 +3605,15 @@
       <c r="B185" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -1948,6 +3622,15 @@
       <c r="B186" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -1956,6 +3639,15 @@
       <c r="B187" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -1964,6 +3656,15 @@
       <c r="B188" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -1972,6 +3673,15 @@
       <c r="B189" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -1980,6 +3690,15 @@
       <c r="B190" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -1988,6 +3707,15 @@
       <c r="B191" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D191" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E191" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -1996,6 +3724,15 @@
       <c r="B192" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2004,6 +3741,15 @@
       <c r="B193" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E193" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2012,6 +3758,15 @@
       <c r="B194" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C194" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2020,6 +3775,15 @@
       <c r="B195" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2028,6 +3792,15 @@
       <c r="B196" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2036,6 +3809,15 @@
       <c r="B197" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C197" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2044,6 +3826,15 @@
       <c r="B198" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2052,6 +3843,15 @@
       <c r="B199" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2060,6 +3860,15 @@
       <c r="B200" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C200" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2068,6 +3877,15 @@
       <c r="B201" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2076,6 +3894,15 @@
       <c r="B202" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C202" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2084,6 +3911,15 @@
       <c r="B203" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2092,6 +3928,15 @@
       <c r="B204" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2100,6 +3945,15 @@
       <c r="B205" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C205" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E205" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2108,6 +3962,15 @@
       <c r="B206" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C206" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2116,6 +3979,15 @@
       <c r="B207" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C207" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2124,6 +3996,15 @@
       <c r="B208" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C208" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2132,6 +4013,15 @@
       <c r="B209" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C209" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2140,6 +4030,15 @@
       <c r="B210" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2148,6 +4047,15 @@
       <c r="B211" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2156,6 +4064,15 @@
       <c r="B212" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2164,6 +4081,15 @@
       <c r="B213" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2172,6 +4098,15 @@
       <c r="B214" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C214" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2180,6 +4115,15 @@
       <c r="B215" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2188,6 +4132,15 @@
       <c r="B216" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C216" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2196,6 +4149,15 @@
       <c r="B217" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2204,6 +4166,15 @@
       <c r="B218" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2212,6 +4183,15 @@
       <c r="B219" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2220,6 +4200,15 @@
       <c r="B220" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C220" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2228,6 +4217,15 @@
       <c r="B221" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2236,6 +4234,15 @@
       <c r="B222" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C222" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2244,6 +4251,15 @@
       <c r="B223" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C223" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2252,6 +4268,15 @@
       <c r="B224" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C224" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2260,6 +4285,15 @@
       <c r="B225" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2268,6 +4302,15 @@
       <c r="B226" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2276,6 +4319,15 @@
       <c r="B227" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C227" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2284,6 +4336,15 @@
       <c r="B228" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -2292,6 +4353,15 @@
       <c r="B229" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C229" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2300,6 +4370,15 @@
       <c r="B230" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C230" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E230" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2308,6 +4387,15 @@
       <c r="B231" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2316,6 +4404,15 @@
       <c r="B232" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C232" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -2324,6 +4421,15 @@
       <c r="B233" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E233" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -2332,6 +4438,15 @@
       <c r="B234" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C234" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -2340,6 +4455,15 @@
       <c r="B235" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C235" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -2348,6 +4472,15 @@
       <c r="B236" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C236" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E236" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -2356,6 +4489,15 @@
       <c r="B237" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -2364,6 +4506,15 @@
       <c r="B238" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D238" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E238" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -2372,6 +4523,15 @@
       <c r="B239" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -2380,6 +4540,15 @@
       <c r="B240" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E240" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -2388,6 +4557,15 @@
       <c r="B241" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -2396,6 +4574,15 @@
       <c r="B242" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -2404,6 +4591,15 @@
       <c r="B243" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E243" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -2412,6 +4608,15 @@
       <c r="B244" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -2420,6 +4625,15 @@
       <c r="B245" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -2428,6 +4642,15 @@
       <c r="B246" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E246" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -2436,6 +4659,15 @@
       <c r="B247" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -2444,6 +4676,15 @@
       <c r="B248" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -2452,6 +4693,15 @@
       <c r="B249" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -2460,6 +4710,15 @@
       <c r="B250" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E250" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -2468,6 +4727,15 @@
       <c r="B251" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E251" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -2476,6 +4744,15 @@
       <c r="B252" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -2484,6 +4761,15 @@
       <c r="B253" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E253" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -2492,6 +4778,15 @@
       <c r="B254" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -2500,6 +4795,15 @@
       <c r="B255" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -2508,6 +4812,15 @@
       <c r="B256" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E256" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -2516,6 +4829,15 @@
       <c r="B257" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -2524,6 +4846,15 @@
       <c r="B258" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -2532,6 +4863,15 @@
       <c r="B259" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C259" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -2540,6 +4880,15 @@
       <c r="B260" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -2548,6 +4897,15 @@
       <c r="B261" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D261" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E261" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -2556,6 +4914,15 @@
       <c r="B262" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -2564,6 +4931,15 @@
       <c r="B263" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -2572,6 +4948,15 @@
       <c r="B264" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -2580,6 +4965,15 @@
       <c r="B265" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C265" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -2588,6 +4982,15 @@
       <c r="B266" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C266" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E266" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -2596,6 +4999,15 @@
       <c r="B267" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C267" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -2604,6 +5016,15 @@
       <c r="B268" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D268" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -2612,6 +5033,15 @@
       <c r="B269" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C269" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E269" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -2620,6 +5050,15 @@
       <c r="B270" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C270" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -2628,6 +5067,15 @@
       <c r="B271" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -2636,6 +5084,15 @@
       <c r="B272" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D272" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E272" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -2644,6 +5101,15 @@
       <c r="B273" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -2652,6 +5118,15 @@
       <c r="B274" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C274" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E274" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -2660,6 +5135,15 @@
       <c r="B275" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E275" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -2668,6 +5152,15 @@
       <c r="B276" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E276" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -2676,6 +5169,15 @@
       <c r="B277" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D277" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -2684,6 +5186,15 @@
       <c r="B278" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C278" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E278" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -2692,6 +5203,15 @@
       <c r="B279" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C279" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -2700,6 +5220,15 @@
       <c r="B280" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C280" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -2708,6 +5237,15 @@
       <c r="B281" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C281" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -2716,6 +5254,15 @@
       <c r="B282" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C282" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -2724,6 +5271,15 @@
       <c r="B283" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -2732,6 +5288,15 @@
       <c r="B284" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D284" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -2740,6 +5305,15 @@
       <c r="B285" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C285" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E285" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -2748,6 +5322,15 @@
       <c r="B286" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E286" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -2756,6 +5339,15 @@
       <c r="B287" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -2764,6 +5356,15 @@
       <c r="B288" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -2772,6 +5373,15 @@
       <c r="B289" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C289" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -2780,6 +5390,15 @@
       <c r="B290" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C290" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E290" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -2788,6 +5407,15 @@
       <c r="B291" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C291" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -2796,6 +5424,15 @@
       <c r="B292" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C292" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E292" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -2804,6 +5441,15 @@
       <c r="B293" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C293" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -2812,6 +5458,15 @@
       <c r="B294" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C294" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E294" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -2820,6 +5475,15 @@
       <c r="B295" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C295" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E295" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -2828,6 +5492,15 @@
       <c r="B296" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C296" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -2836,6 +5509,15 @@
       <c r="B297" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C297" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -2844,6 +5526,15 @@
       <c r="B298" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C298" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D298" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -2852,6 +5543,15 @@
       <c r="B299" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C299" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -2860,6 +5560,15 @@
       <c r="B300" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E300" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -2868,6 +5577,15 @@
       <c r="B301" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C301" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E301" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -2876,6 +5594,15 @@
       <c r="B302" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C302" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E302" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -2884,6 +5611,15 @@
       <c r="B303" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C303" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E303" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -2892,6 +5628,15 @@
       <c r="B304" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C304" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -2900,6 +5645,15 @@
       <c r="B305" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C305" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -2908,6 +5662,15 @@
       <c r="B306" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C306" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -2916,6 +5679,15 @@
       <c r="B307" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C307" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E307" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -2924,6 +5696,15 @@
       <c r="B308" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C308" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E308" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -2932,6 +5713,15 @@
       <c r="B309" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C309" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -2940,6 +5730,15 @@
       <c r="B310" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D310" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E310" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -2948,6 +5747,15 @@
       <c r="B311" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C311" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E311" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -2956,6 +5764,15 @@
       <c r="B312" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C312" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D312" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E312" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -2964,6 +5781,15 @@
       <c r="B313" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C313" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E313" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -2972,6 +5798,15 @@
       <c r="B314" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C314" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D314" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E314" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -2980,6 +5815,15 @@
       <c r="B315" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C315" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D315" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -2988,6 +5832,15 @@
       <c r="B316" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C316" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D316" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E316" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -2996,6 +5849,15 @@
       <c r="B317" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C317" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D317" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E317" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -3004,6 +5866,15 @@
       <c r="B318" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C318" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D318" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E318" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -3012,6 +5883,15 @@
       <c r="B319" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C319" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D319" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E319" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -3020,6 +5900,15 @@
       <c r="B320" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C320" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D320" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -3028,6 +5917,15 @@
       <c r="B321" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -3036,6 +5934,15 @@
       <c r="B322" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C322" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D322" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E322" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -3044,6 +5951,15 @@
       <c r="B323" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -3052,6 +5968,15 @@
       <c r="B324" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C324" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D324" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E324" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -3060,6 +5985,15 @@
       <c r="B325" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -3068,6 +6002,15 @@
       <c r="B326" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C326" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D326" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E326" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -3076,6 +6019,15 @@
       <c r="B327" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C327" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D327" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E327" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -3084,6 +6036,15 @@
       <c r="B328" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C328" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D328" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E328" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -3092,6 +6053,15 @@
       <c r="B329" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C329" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D329" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E329" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -3100,6 +6070,15 @@
       <c r="B330" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D330" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E330" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -3108,6 +6087,15 @@
       <c r="B331" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C331" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D331" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E331" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -3116,6 +6104,15 @@
       <c r="B332" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D332" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E332" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -3124,6 +6121,15 @@
       <c r="B333" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C333" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D333" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E333" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -3132,6 +6138,15 @@
       <c r="B334" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C334" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D334" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E334" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -3140,6 +6155,15 @@
       <c r="B335" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C335" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D335" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E335" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -3148,6 +6172,15 @@
       <c r="B336" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C336" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D336" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E336" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -3156,6 +6189,15 @@
       <c r="B337" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C337" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D337" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E337" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -3164,6 +6206,15 @@
       <c r="B338" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C338" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D338" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E338" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -3172,6 +6223,15 @@
       <c r="B339" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C339" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D339" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E339" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -3180,6 +6240,15 @@
       <c r="B340" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C340" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D340" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E340" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -3188,6 +6257,15 @@
       <c r="B341" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C341" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D341" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E341" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -3196,6 +6274,15 @@
       <c r="B342" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C342" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D342" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -3204,6 +6291,15 @@
       <c r="B343" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C343" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -3212,6 +6308,15 @@
       <c r="B344" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E344" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -3220,6 +6325,15 @@
       <c r="B345" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C345" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D345" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -3228,6 +6342,15 @@
       <c r="B346" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C346" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D346" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E346" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -3236,6 +6359,15 @@
       <c r="B347" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C347" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D347" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E347" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -3244,6 +6376,15 @@
       <c r="B348" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C348" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D348" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -3252,6 +6393,15 @@
       <c r="B349" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E349" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -3260,6 +6410,15 @@
       <c r="B350" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C350" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D350" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E350" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -3268,6 +6427,15 @@
       <c r="B351" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C351" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D351" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E351" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -3276,6 +6444,15 @@
       <c r="B352" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C352" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D352" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E352" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -3284,6 +6461,15 @@
       <c r="B353" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C353" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D353" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E353" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -3292,6 +6478,15 @@
       <c r="B354" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C354" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D354" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E354" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -3300,6 +6495,15 @@
       <c r="B355" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C355" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D355" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E355" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -3308,6 +6512,15 @@
       <c r="B356" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C356" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D356" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E356" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -3316,6 +6529,15 @@
       <c r="B357" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C357" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D357" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E357" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -3324,6 +6546,15 @@
       <c r="B358" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C358" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D358" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -3332,6 +6563,15 @@
       <c r="B359" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C359" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D359" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E359" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -3340,6 +6580,15 @@
       <c r="B360" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C360" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D360" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E360" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -3348,6 +6597,15 @@
       <c r="B361" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C361" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D361" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -3356,6 +6614,15 @@
       <c r="B362" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C362" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D362" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E362" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -3364,6 +6631,15 @@
       <c r="B363" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C363" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D363" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E363" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -3372,6 +6648,15 @@
       <c r="B364" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C364" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D364" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E364" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -3380,6 +6665,15 @@
       <c r="B365" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C365" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D365" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E365" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -3388,6 +6682,15 @@
       <c r="B366" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C366" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D366" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E366" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -3396,6 +6699,15 @@
       <c r="B367" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C367" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D367" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E367" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -3404,6 +6716,15 @@
       <c r="B368" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C368" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D368" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E368" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -3412,6 +6733,15 @@
       <c r="B369" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C369" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D369" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E369" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -3420,6 +6750,15 @@
       <c r="B370" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C370" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D370" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E370" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -3428,6 +6767,15 @@
       <c r="B371" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C371" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D371" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -3436,6 +6784,15 @@
       <c r="B372" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C372" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D372" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E372" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -3444,6 +6801,15 @@
       <c r="B373" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C373" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D373" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E373" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -3452,6 +6818,15 @@
       <c r="B374" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C374" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D374" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E374" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -3460,6 +6835,15 @@
       <c r="B375" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C375" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D375" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E375" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -3468,6 +6852,15 @@
       <c r="B376" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C376" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D376" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E376" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -3476,6 +6869,15 @@
       <c r="B377" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C377" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D377" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E377" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -3484,6 +6886,15 @@
       <c r="B378" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C378" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D378" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E378" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -3492,6 +6903,15 @@
       <c r="B379" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C379" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D379" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E379" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -3500,6 +6920,15 @@
       <c r="B380" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E380" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -3508,6 +6937,15 @@
       <c r="B381" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C381" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D381" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E381" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -3516,6 +6954,15 @@
       <c r="B382" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C382" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D382" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E382" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -3524,6 +6971,15 @@
       <c r="B383" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C383" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D383" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E383" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -3532,6 +6988,15 @@
       <c r="B384" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C384" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D384" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E384" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -3540,6 +7005,15 @@
       <c r="B385" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C385" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D385" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E385" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -3548,6 +7022,15 @@
       <c r="B386" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C386" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D386" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E386" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -3556,6 +7039,15 @@
       <c r="B387" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C387" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D387" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E387" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -3564,6 +7056,15 @@
       <c r="B388" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -3572,6 +7073,15 @@
       <c r="B389" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C389" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D389" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E389" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -3580,6 +7090,15 @@
       <c r="B390" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E390" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -3588,6 +7107,15 @@
       <c r="B391" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C391" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D391" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -3596,6 +7124,15 @@
       <c r="B392" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E392" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -3604,6 +7141,15 @@
       <c r="B393" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D393" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -3612,6 +7158,15 @@
       <c r="B394" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E394" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -3620,6 +7175,15 @@
       <c r="B395" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E395" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -3628,6 +7192,15 @@
       <c r="B396" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C396" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D396" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E396" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -3636,6 +7209,15 @@
       <c r="B397" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C397" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D397" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E397" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -3644,6 +7226,15 @@
       <c r="B398" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C398" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D398" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E398" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -3652,6 +7243,15 @@
       <c r="B399" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C399" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D399" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E399" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -3660,6 +7260,15 @@
       <c r="B400" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C400" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D400" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E400" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -3668,6 +7277,15 @@
       <c r="B401" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C401" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D401" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E401" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -3676,6 +7294,15 @@
       <c r="B402" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C402" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D402" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E402" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -3684,6 +7311,15 @@
       <c r="B403" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C403" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D403" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E403" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -3692,6 +7328,15 @@
       <c r="B404" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C404" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D404" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E404" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -3700,6 +7345,15 @@
       <c r="B405" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C405" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D405" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E405" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -3708,6 +7362,15 @@
       <c r="B406" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C406" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D406" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E406" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -3716,6 +7379,15 @@
       <c r="B407" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C407" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D407" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E407" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -3724,6 +7396,15 @@
       <c r="B408" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C408" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E408" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -3732,6 +7413,15 @@
       <c r="B409" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C409" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D409" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E409" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -3740,6 +7430,15 @@
       <c r="B410" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E410" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -3748,6 +7447,15 @@
       <c r="B411" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C411" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D411" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E411" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -3756,6 +7464,15 @@
       <c r="B412" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C412" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D412" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E412" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -3764,6 +7481,15 @@
       <c r="B413" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E413" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -3772,6 +7498,15 @@
       <c r="B414" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C414" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E414" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -3780,6 +7515,15 @@
       <c r="B415" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C415" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D415" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E415" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -3788,6 +7532,15 @@
       <c r="B416" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C416" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D416" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E416" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -3796,6 +7549,15 @@
       <c r="B417" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C417" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D417" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E417" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -3804,6 +7566,15 @@
       <c r="B418" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C418" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E418" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -3812,6 +7583,15 @@
       <c r="B419" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C419" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D419" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E419" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -3820,6 +7600,15 @@
       <c r="B420" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C420" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D420" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E420" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -3828,6 +7617,15 @@
       <c r="B421" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C421" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D421" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E421" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -3836,6 +7634,15 @@
       <c r="B422" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C422" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D422" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E422" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -3844,6 +7651,15 @@
       <c r="B423" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C423" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E423" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -3852,6 +7668,15 @@
       <c r="B424" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C424" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D424" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E424" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -3860,6 +7685,15 @@
       <c r="B425" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C425" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D425" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E425" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -3868,6 +7702,15 @@
       <c r="B426" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C426" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D426" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E426" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -3876,6 +7719,15 @@
       <c r="B427" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C427" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D427" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E427" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -3884,6 +7736,15 @@
       <c r="B428" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C428" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D428" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E428" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -3892,6 +7753,15 @@
       <c r="B429" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C429" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D429" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E429" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -3900,6 +7770,15 @@
       <c r="B430" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C430" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D430" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E430" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -3908,6 +7787,15 @@
       <c r="B431" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C431" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E431" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -3916,6 +7804,15 @@
       <c r="B432" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C432" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D432" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E432" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -3924,6 +7821,15 @@
       <c r="B433" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C433" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E433" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -3932,6 +7838,15 @@
       <c r="B434" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C434" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E434" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -3940,6 +7855,15 @@
       <c r="B435" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C435" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E435" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -3948,6 +7872,15 @@
       <c r="B436" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C436" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E436" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -3956,6 +7889,15 @@
       <c r="B437" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C437" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D437" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E437" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -3964,6 +7906,15 @@
       <c r="B438" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D438" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E438" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -3972,6 +7923,15 @@
       <c r="B439" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C439" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E439" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -3980,6 +7940,15 @@
       <c r="B440" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C440" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E440" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -3988,6 +7957,15 @@
       <c r="B441" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C441" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E441" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -3996,6 +7974,15 @@
       <c r="B442" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D442" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E442" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -4004,6 +7991,15 @@
       <c r="B443" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C443" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E443" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -4012,6 +8008,15 @@
       <c r="B444" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D444" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E444" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -4020,6 +8025,15 @@
       <c r="B445" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E445" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -4028,6 +8042,15 @@
       <c r="B446" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C446" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D446" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E446" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -4036,6 +8059,15 @@
       <c r="B447" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E447" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -4044,6 +8076,15 @@
       <c r="B448" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C448" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E448" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -4052,6 +8093,15 @@
       <c r="B449" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E449" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -4060,6 +8110,15 @@
       <c r="B450" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E450" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -4068,6 +8127,15 @@
       <c r="B451" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C451" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E451" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -4076,6 +8144,15 @@
       <c r="B452" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C452" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E452" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -4084,6 +8161,15 @@
       <c r="B453" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C453" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E453" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -4092,6 +8178,15 @@
       <c r="B454" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D454" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E454" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -4100,6 +8195,15 @@
       <c r="B455" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C455" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D455" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E455" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -4108,6 +8212,15 @@
       <c r="B456" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E456" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -4116,6 +8229,15 @@
       <c r="B457" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C457" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D457" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E457" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -4124,6 +8246,15 @@
       <c r="B458" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C458" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D458" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E458" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -4132,6 +8263,15 @@
       <c r="B459" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C459" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D459" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E459" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -4140,6 +8280,15 @@
       <c r="B460" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C460" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E460" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -4148,6 +8297,15 @@
       <c r="B461" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C461" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E461" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -4156,6 +8314,15 @@
       <c r="B462" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E462" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -4164,6 +8331,15 @@
       <c r="B463" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E463" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -4172,6 +8348,15 @@
       <c r="B464" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C464" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E464" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -4180,6 +8365,15 @@
       <c r="B465" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D465" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E465" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -4188,6 +8382,15 @@
       <c r="B466" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C466" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D466" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E466" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -4196,6 +8399,15 @@
       <c r="B467" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D467" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E467" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -4204,6 +8416,15 @@
       <c r="B468" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E468" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -4212,6 +8433,15 @@
       <c r="B469" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C469" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E469" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -4220,6 +8450,15 @@
       <c r="B470" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E470" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -4228,6 +8467,15 @@
       <c r="B471" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E471" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -4236,6 +8484,15 @@
       <c r="B472" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D472" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E472" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -4244,6 +8501,15 @@
       <c r="B473" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E473" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -4252,6 +8518,15 @@
       <c r="B474" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C474" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E474" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -4260,6 +8535,15 @@
       <c r="B475" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C475" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E475" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -4268,6 +8552,15 @@
       <c r="B476" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C476" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E476" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -4276,6 +8569,15 @@
       <c r="B477" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E477" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -4284,6 +8586,15 @@
       <c r="B478" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E478" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -4292,6 +8603,15 @@
       <c r="B479" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C479" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E479" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -4300,6 +8620,15 @@
       <c r="B480" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C480" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E480" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -4308,6 +8637,15 @@
       <c r="B481" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C481" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E481" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -4316,6 +8654,15 @@
       <c r="B482" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C482" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D482" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E482" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -4324,6 +8671,15 @@
       <c r="B483" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E483" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -4332,6 +8688,15 @@
       <c r="B484" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C484" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E484" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -4340,6 +8705,15 @@
       <c r="B485" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E485" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -4348,6 +8722,15 @@
       <c r="B486" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E486" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -4356,6 +8739,15 @@
       <c r="B487" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C487" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E487" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -4364,6 +8756,15 @@
       <c r="B488" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C488" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E488" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -4372,6 +8773,15 @@
       <c r="B489" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E489" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -4380,6 +8790,15 @@
       <c r="B490" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C490" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E490" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -4388,6 +8807,15 @@
       <c r="B491" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C491" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E491" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -4396,6 +8824,15 @@
       <c r="B492" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C492" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E492" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -4404,6 +8841,15 @@
       <c r="B493" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E493" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -4412,6 +8858,15 @@
       <c r="B494" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C494" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E494" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -4420,6 +8875,15 @@
       <c r="B495" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C495" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E495" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -4428,6 +8892,15 @@
       <c r="B496" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -4436,6 +8909,15 @@
       <c r="B497" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C497" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E497" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -4444,6 +8926,15 @@
       <c r="B498" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C498" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D498" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E498" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -4452,6 +8943,15 @@
       <c r="B499" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C499" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E499" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -4460,6 +8960,15 @@
       <c r="B500" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C500" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D500" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E500" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -4468,6 +8977,15 @@
       <c r="B501" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C501" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E501" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -4476,6 +8994,15 @@
       <c r="B502" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C502" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E502" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -4484,6 +9011,15 @@
       <c r="B503" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C503" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D503" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E503" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -4492,6 +9028,15 @@
       <c r="B504" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C504" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D504" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E504" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -4500,6 +9045,15 @@
       <c r="B505" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C505" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D505" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E505" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -4508,6 +9062,15 @@
       <c r="B506" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C506" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E506" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -4516,6 +9079,15 @@
       <c r="B507" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C507" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D507" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E507" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -4524,6 +9096,15 @@
       <c r="B508" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C508" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D508" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E508" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -4532,6 +9113,15 @@
       <c r="B509" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C509" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D509" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E509" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -4540,6 +9130,15 @@
       <c r="B510" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C510" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E510" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -4548,6 +9147,15 @@
       <c r="B511" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C511" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D511" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E511" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -4556,6 +9164,15 @@
       <c r="B512" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C512" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E512" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -4564,6 +9181,15 @@
       <c r="B513" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C513" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E513" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -4572,6 +9198,15 @@
       <c r="B514" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C514" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E514" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -4580,6 +9215,15 @@
       <c r="B515" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C515" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D515" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E515" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -4588,6 +9232,15 @@
       <c r="B516" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C516" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E516" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -4596,6 +9249,15 @@
       <c r="B517" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C517" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D517" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E517" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -4604,6 +9266,15 @@
       <c r="B518" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C518" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E518" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -4612,6 +9283,15 @@
       <c r="B519" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C519" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E519" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -4620,6 +9300,15 @@
       <c r="B520" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C520" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E520" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -4628,6 +9317,15 @@
       <c r="B521" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C521" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E521" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -4636,6 +9334,15 @@
       <c r="B522" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C522" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D522" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E522" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -4644,6 +9351,15 @@
       <c r="B523" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C523" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D523" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E523" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -4652,6 +9368,15 @@
       <c r="B524" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C524" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D524" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E524" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -4660,6 +9385,15 @@
       <c r="B525" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C525" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E525" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -4668,6 +9402,15 @@
       <c r="B526" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C526" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E526" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -4676,6 +9419,15 @@
       <c r="B527" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C527" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E527" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -4684,6 +9436,15 @@
       <c r="B528" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C528" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E528" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -4692,6 +9453,15 @@
       <c r="B529" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C529" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E529" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -4700,6 +9470,15 @@
       <c r="B530" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C530" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E530" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -4708,6 +9487,15 @@
       <c r="B531" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C531" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D531" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E531" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -4716,6 +9504,15 @@
       <c r="B532" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C532" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D532" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -4724,6 +9521,15 @@
       <c r="B533" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C533" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D533" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E533" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -4732,6 +9538,15 @@
       <c r="B534" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C534" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D534" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E534" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -4740,6 +9555,15 @@
       <c r="B535" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C535" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E535" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -4748,6 +9572,15 @@
       <c r="B536" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C536" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D536" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E536" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -4756,6 +9589,15 @@
       <c r="B537" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C537" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E537" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -4764,6 +9606,15 @@
       <c r="B538" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C538" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D538" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E538" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -4772,6 +9623,15 @@
       <c r="B539" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C539" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D539" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -4780,6 +9640,15 @@
       <c r="B540" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C540" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D540" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -4788,6 +9657,15 @@
       <c r="B541" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C541" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D541" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E541" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -4796,6 +9674,15 @@
       <c r="B542" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C542" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D542" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E542" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -4804,6 +9691,15 @@
       <c r="B543" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C543" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D543" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E543" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -4812,6 +9708,15 @@
       <c r="B544" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C544" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D544" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E544" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -4820,6 +9725,15 @@
       <c r="B545" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C545" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D545" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E545" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -4828,6 +9742,15 @@
       <c r="B546" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C546" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D546" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -4836,6 +9759,15 @@
       <c r="B547" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C547" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D547" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -4844,6 +9776,15 @@
       <c r="B548" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C548" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D548" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -4852,6 +9793,15 @@
       <c r="B549" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C549" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D549" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E549" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -4860,6 +9810,15 @@
       <c r="B550" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C550" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D550" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E550" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -4868,6 +9827,15 @@
       <c r="B551" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C551" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D551" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E551" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -4876,6 +9844,15 @@
       <c r="B552" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C552" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D552" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E552" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -4884,6 +9861,15 @@
       <c r="B553" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C553" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D553" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E553" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -4892,6 +9878,15 @@
       <c r="B554" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C554" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D554" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E554" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -4900,6 +9895,15 @@
       <c r="B555" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C555" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D555" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E555" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -4908,6 +9912,15 @@
       <c r="B556" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C556" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D556" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -4916,6 +9929,15 @@
       <c r="B557" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C557" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D557" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -4924,6 +9946,15 @@
       <c r="B558" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C558" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D558" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -4932,6 +9963,15 @@
       <c r="B559" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C559" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D559" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E559" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -4940,6 +9980,15 @@
       <c r="B560" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C560" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D560" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E560" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -4948,6 +9997,15 @@
       <c r="B561" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C561" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D561" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E561" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -4956,6 +10014,15 @@
       <c r="B562" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C562" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D562" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E562" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -4964,6 +10031,15 @@
       <c r="B563" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C563" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D563" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E563" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -4972,6 +10048,15 @@
       <c r="B564" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C564" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D564" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -4980,6 +10065,15 @@
       <c r="B565" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C565" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D565" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E565" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -4988,6 +10082,15 @@
       <c r="B566" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C566" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D566" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E566" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -4996,6 +10099,15 @@
       <c r="B567" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C567" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D567" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E567" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -5004,6 +10116,15 @@
       <c r="B568" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C568" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D568" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E568" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -5012,6 +10133,15 @@
       <c r="B569" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C569" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D569" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E569" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -5020,6 +10150,15 @@
       <c r="B570" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C570" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D570" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E570" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -5028,6 +10167,15 @@
       <c r="B571" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C571" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D571" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E571" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -5036,6 +10184,15 @@
       <c r="B572" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C572" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D572" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E572" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -5044,6 +10201,15 @@
       <c r="B573" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C573" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D573" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E573" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -5052,6 +10218,15 @@
       <c r="B574" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C574" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D574" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -5060,6 +10235,15 @@
       <c r="B575" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C575" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D575" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E575" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -5068,6 +10252,15 @@
       <c r="B576" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C576" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D576" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E576" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -5076,6 +10269,15 @@
       <c r="B577" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C577" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D577" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E577" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -5084,6 +10286,15 @@
       <c r="B578" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C578" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D578" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E578" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -5092,6 +10303,15 @@
       <c r="B579" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C579" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D579" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E579" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -5100,6 +10320,15 @@
       <c r="B580" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C580" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D580" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E580" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -5108,6 +10337,15 @@
       <c r="B581" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C581" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D581" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E581" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -5116,6 +10354,15 @@
       <c r="B582" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C582" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D582" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E582" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -5124,6 +10371,15 @@
       <c r="B583" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C583" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D583" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E583" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -5132,6 +10388,15 @@
       <c r="B584" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C584" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D584" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E584" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -5140,6 +10405,15 @@
       <c r="B585" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C585" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D585" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E585" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -5148,6 +10422,15 @@
       <c r="B586" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C586" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D586" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E586" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -5156,6 +10439,15 @@
       <c r="B587" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C587" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D587" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E587" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -5164,6 +10456,15 @@
       <c r="B588" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C588" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D588" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E588" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -5172,6 +10473,15 @@
       <c r="B589" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="C589" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D589" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E589" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -5180,6 +10490,15 @@
       <c r="B590" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="C590" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D590" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -5187,6 +10506,15 @@
       </c>
       <c r="B591" s="3" t="b">
         <v>0</v>
+      </c>
+      <c r="C591" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D591" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E591" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
